--- a/data_process/xlsx/jongno_A3_processed.xlsx
+++ b/data_process/xlsx/jongno_A3_processed.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -956,7 +956,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-08-28 02:26:00</t>
+          <t>2023-09-06 15:24:14</t>
         </is>
       </c>
       <c r="N55" t="n">
